--- a/챕터8 예외.xlsx
+++ b/챕터8 예외.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\공부\개인 공부\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\공부\개인 공부\자바\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBC70F5-3474-4283-BF4A-1AF5021423C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CC8766-1229-467F-B6AA-34D2046F621D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch8 예외" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -78,10 +77,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비정상 종료를 막고 정상적인 실행상태를 유지하는 것</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1893,6 +1888,10 @@
   </si>
   <si>
     <t>-이미 여기저기에서 상속되어 사용 중일 경우 (아니라면 상속 자체를 변경하면 됨)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비정상 종료를 막고 정상적인 실행상태를 유지하기 위한 코드를 작성하는 것</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2674,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2686,7 +2685,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2702,140 +2701,140 @@
     </row>
     <row r="5" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2844,37 +2843,37 @@
     <row r="36" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="2:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2882,7 +2881,7 @@
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2893,22 +2892,22 @@
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="375.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2917,22 +2916,22 @@
     <row r="53" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="195" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2940,17 +2939,17 @@
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
@@ -2979,12 +2978,12 @@
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2993,21 +2992,7 @@
     <hyperlink ref="B1" r:id="rId1" xr:uid="{D2289B7A-5822-4E6E-8E72-5005FC0990C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1317E86C-1964-4B9D-8367-08ACA169F896}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/챕터8 예외.xlsx
+++ b/챕터8 예외.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\공부\개인 공부\자바\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Downloads\--main\--main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CC8766-1229-467F-B6AA-34D2046F621D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5BEA3A-1E90-471A-9CB2-5303E07CFEB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch8 예외" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ch8 예외'!$B$1:$B$71</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1777,10 +1780,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3. 주머니예외를 발생시킨다.  -&gt;  throw 주너니객체;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상위 내용으로 묶어서 상위내용 출력과 상세내용 출력으로 좀더 상세한 오류내용을 출력가능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1892,6 +1891,10 @@
   </si>
   <si>
     <t>비정상 종료를 막고 정상적인 실행상태를 유지하기 위한 코드를 작성하는 것</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 주머니예외를 발생시킨다.  -&gt;  throw 주머니객체;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2320,15 +2323,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>96411</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>121312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>267861</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7572375</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>2400635</xdr:rowOff>
+      <xdr:rowOff>2279324</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2351,8 +2354,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247650" y="18973800"/>
-          <a:ext cx="8316486" cy="2400635"/>
+          <a:off x="344061" y="18895087"/>
+          <a:ext cx="7475964" cy="2158012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2364,15 +2367,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>58327</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>89371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>391702</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7781925</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>228834</xdr:rowOff>
+      <xdr:rowOff>158513</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2395,8 +2398,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257175" y="22117050"/>
-          <a:ext cx="8430802" cy="1676634"/>
+          <a:off x="305977" y="21977821"/>
+          <a:ext cx="7723598" cy="1535992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2673,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2685,7 +2688,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2701,7 +2704,7 @@
     </row>
     <row r="5" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2931,7 +2934,7 @@
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="195" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2939,17 +2942,17 @@
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
@@ -2978,12 +2981,12 @@
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2992,7 +2995,11 @@
     <hyperlink ref="B1" r:id="rId1" xr:uid="{D2289B7A-5822-4E6E-8E72-5005FC0990C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId2"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="35" min="1" max="1" man="1"/>
+    <brk id="52" min="1" max="1" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/챕터8 예외.xlsx
+++ b/챕터8 예외.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\공부\개인 공부\자바\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\--main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1637C917-7615-4328-ABA9-DCB9C9AF465E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6171E9-8DD7-4938-98DB-72EC322AFB23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch8 예외" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ch8 예외'!$B$1:$B$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ch8 예외'!$B$1:$B$72</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <r>
       <rPr>
@@ -1984,6 +1984,10 @@
       </rPr>
       <t>*예외 발생 위치에서 바로 catch문으로 이동</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 예외 원인 출력  -&gt; try문에서 "출력내용"넣고-&gt;catch 문에서 System.out.println(getMessage());</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2375,13 +2379,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>67568</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>85471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5715000</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>2248497</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2419,13 +2423,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5811050</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>4686943</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2463,13 +2467,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>96411</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>148807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>2251829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2507,13 +2511,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>134527</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>142410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>105474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2813,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B71"/>
+  <dimension ref="B1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3013,89 +3017,91 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="4" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="15"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="16" t="s">
+    <row r="45" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="13" t="s">
+    <row r="47" spans="2:2" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="13" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="375.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="18" t="s">
+    <row r="53" spans="2:2" ht="375.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B55" s="12" t="s">
+    <row r="56" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B56" s="12" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="195" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="7"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="2" t="s">
+    <row r="59" spans="2:2" ht="195" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="7" t="s">
+    <row r="61" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B61" s="22" t="s">
+    <row r="62" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B62" s="22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="7"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
@@ -3115,16 +3121,19 @@
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="2:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="20" t="s">
+    <row r="70" spans="2:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="8" t="s">
+    <row r="72" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3137,7 +3146,7 @@
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId2"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="35" min="1" max="1" man="1"/>
-    <brk id="52" min="1" max="1" man="1"/>
+    <brk id="53" min="1" max="1" man="1"/>
   </rowBreaks>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/챕터8 예외.xlsx
+++ b/챕터8 예외.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\--main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Downloads\--main\--main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6171E9-8DD7-4938-98DB-72EC322AFB23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19BA86C-F673-4993-8008-991E2E7C5C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch8 예외" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ch8 예외'!$B$1:$B$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ch8 예외'!$B$1:$B$71</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2428,9 +2428,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5811050</xdr:colOff>
+      <xdr:colOff>5824385</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>4686943</xdr:rowOff>
+      <xdr:rowOff>4688848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2467,13 +2467,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>96411</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>148807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:colOff>108585</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>2251829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2511,14 +2511,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>134527</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>142410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>105474</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>111189</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2817,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B72"/>
+  <dimension ref="B1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3064,44 +3064,46 @@
     <row r="53" spans="2:2" ht="375.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="18" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B56" s="12" t="s">
+    <row r="55" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B55" s="12" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="195" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="7"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="2" t="s">
+    <row r="58" spans="2:2" ht="195" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="7" t="s">
+    <row r="60" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B62" s="22" t="s">
+    <row r="61" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B61" s="22" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="7"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
@@ -3121,19 +3123,16 @@
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="2:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="7"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="20" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="8" t="s">
+    <row r="71" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3143,7 +3142,7 @@
     <hyperlink ref="B1" r:id="rId1" xr:uid="{D2289B7A-5822-4E6E-8E72-5005FC0990C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId2"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="35" min="1" max="1" man="1"/>
     <brk id="53" min="1" max="1" man="1"/>
